--- a/medicine/Sexualité et sexologie/Je_suis_frigide__pourquoi__/Je_suis_frigide__pourquoi__.xlsx
+++ b/medicine/Sexualité et sexologie/Je_suis_frigide__pourquoi__/Je_suis_frigide__pourquoi__.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Je_suis_frigide..._pourquoi_%3F</t>
+          <t>Je_suis_frigide..._pourquoi_?</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Je suis frigide… pourquoi ?, aussi exploité sous le titre Comment le désir vient aux filles, est un film français de Max Pécas tourné en 1972 et sorti en 1973.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Je_suis_frigide..._pourquoi_%3F</t>
+          <t>Je_suis_frigide..._pourquoi_?</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Doris cherche à surmonter le blocage qui l'empêche de s'épanouir dans une relation amoureuse.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Je_suis_frigide..._pourquoi_%3F</t>
+          <t>Je_suis_frigide..._pourquoi_?</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Je suis frigide… pourquoi ?
 Réalisation : Max Pécas
@@ -559,7 +575,7 @@
 Genre : érotique / Drame
 Durée : 95 minutes
 Date de sortie : 22 mars 1973
-Interdiction aux moins de 18 ans à sa sortie en salles en France[1].
+Interdiction aux moins de 18 ans à sa sortie en salles en France.
 Autres titres connus
 France : Comment le désir vient aux filles</t>
         </is>
@@ -571,7 +587,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Je_suis_frigide..._pourquoi_%3F</t>
+          <t>Je_suis_frigide..._pourquoi_?</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -589,7 +605,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Sandra Julien : Doris
 Thierry Murzeau : Luc, l'amant de Doris
@@ -606,9 +624,9 @@
 Jean-Charles Maratier : Le client chatouilleur
 André Cassan : l'ami de Monsieur Chambon
 Daniel Derval : un acteur de la troupe
-Laure Moutoussamy : Une fille fouettée[2]
-Gilda Arancio : Une fille fouettée[2]
-Joëlle Cœur :  Une fille à la fête[3]</t>
+Laure Moutoussamy : Une fille fouettée
+Gilda Arancio : Une fille fouettée
+Joëlle Cœur :  Une fille à la fête</t>
         </is>
       </c>
     </row>
@@ -618,7 +636,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Je_suis_frigide..._pourquoi_%3F</t>
+          <t>Je_suis_frigide..._pourquoi_?</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -637,6 +655,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -644,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Je_suis_frigide..._pourquoi_%3F</t>
+          <t>Je_suis_frigide..._pourquoi_?</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -664,12 +684,15 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Accueil
-Exploitation en salle
-Éditions vidéo
-France : 
+          <t>Éditions vidéo</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>France : 
 Je suis frigide... pourquoi ?, L.C.J., 6 janvier 2014, DVD
-Espagne[5] : 
+Espagne : 
 Soy frígida ¿por qué?, Goldstar D.L., 1985, VHS
 Yo soy frígida… ¿por qué?, Divisa Home Video, 2002, VHS / DVD
 Yo soy frígida… ¿por qué?, coffret Max Pécas, Divisa Home Video, 2006, DVD
